--- a/Code/Results/Cases/Case_8_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.995524336375638</v>
+        <v>2.689476386196475</v>
       </c>
       <c r="C2">
-        <v>1.180713470097658</v>
+        <v>1.27192887248566</v>
       </c>
       <c r="D2">
-        <v>0.01114916934720078</v>
+        <v>0.02520170699912327</v>
       </c>
       <c r="E2">
-        <v>0.0431941249661012</v>
+        <v>0.05487689624101044</v>
       </c>
       <c r="F2">
-        <v>2.266107156587466</v>
+        <v>1.915743404087607</v>
       </c>
       <c r="G2">
-        <v>0.0008180604764527742</v>
+        <v>0.008867539165059335</v>
       </c>
       <c r="H2">
-        <v>0.002241094379670683</v>
+        <v>0.0008690374788511424</v>
       </c>
       <c r="I2">
-        <v>0.001149549133799166</v>
+        <v>0.0005370141756735336</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9760669978901575</v>
+        <v>0.7473401017996508</v>
       </c>
       <c r="L2">
-        <v>0.09044324478234955</v>
+        <v>0.3363405910761443</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2323350854545012</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09702972179104918</v>
       </c>
       <c r="O2">
-        <v>0.8311758661051769</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.051420640711953</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8118584303906005</v>
+      </c>
+      <c r="R2">
+        <v>0.8959933093413426</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.60917466400258</v>
+        <v>2.350208785887958</v>
       </c>
       <c r="C3">
-        <v>1.027009152540302</v>
+        <v>1.103513960146984</v>
       </c>
       <c r="D3">
-        <v>0.009756570614209537</v>
+        <v>0.02337112251191442</v>
       </c>
       <c r="E3">
-        <v>0.03829673579287984</v>
+        <v>0.05030020031940907</v>
       </c>
       <c r="F3">
-        <v>2.078063452366408</v>
+        <v>1.759489188502641</v>
       </c>
       <c r="G3">
-        <v>0.0008235732888104419</v>
+        <v>0.01364818840621429</v>
       </c>
       <c r="H3">
-        <v>0.004660190572825185</v>
+        <v>0.002174931918234924</v>
       </c>
       <c r="I3">
-        <v>0.002689624320537654</v>
+        <v>0.0007691165188878912</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9142054267062534</v>
+        <v>0.7048805657993924</v>
       </c>
       <c r="L3">
-        <v>0.08041131660671041</v>
+        <v>0.3292256724831404</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.208468790686009</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.08856182015759018</v>
       </c>
       <c r="O3">
-        <v>0.7267105303467218</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.078545924476138</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7103007832187558</v>
+      </c>
+      <c r="R3">
+        <v>0.9236032858436083</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.372047695856338</v>
+        <v>2.140939803140384</v>
       </c>
       <c r="C4">
-        <v>0.9336785150232174</v>
+        <v>1.000828176874109</v>
       </c>
       <c r="D4">
-        <v>0.008938526067234775</v>
+        <v>0.02228652796999597</v>
       </c>
       <c r="E4">
-        <v>0.0353337290413922</v>
+        <v>0.04750330262583802</v>
       </c>
       <c r="F4">
-        <v>1.963575019097902</v>
+        <v>1.66357982971823</v>
       </c>
       <c r="G4">
-        <v>0.0008270679719311535</v>
+        <v>0.01720828603503732</v>
       </c>
       <c r="H4">
-        <v>0.006644675715017534</v>
+        <v>0.00330920903429055</v>
       </c>
       <c r="I4">
-        <v>0.004149178593630953</v>
+        <v>0.001202043407896536</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8764925327843684</v>
+        <v>0.6786339587330303</v>
       </c>
       <c r="L4">
-        <v>0.07429753988742505</v>
+        <v>0.3244876013932583</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.194587057389068</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08334958395681724</v>
       </c>
       <c r="O4">
-        <v>0.6627584814214629</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095480307797946</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6479625688521367</v>
+      </c>
+      <c r="R4">
+        <v>0.9407562916529422</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.273365455611895</v>
+        <v>2.053582979403018</v>
       </c>
       <c r="C5">
-        <v>0.8963942165478329</v>
+        <v>0.959645314920067</v>
       </c>
       <c r="D5">
-        <v>0.008649264136458612</v>
+        <v>0.02190862313052477</v>
       </c>
       <c r="E5">
-        <v>0.03415562126755667</v>
+        <v>0.04638835732442104</v>
       </c>
       <c r="F5">
-        <v>1.91520268782827</v>
+        <v>1.622799589164558</v>
       </c>
       <c r="G5">
-        <v>0.0008285300908666269</v>
+        <v>0.0188194467305054</v>
       </c>
       <c r="H5">
-        <v>0.0075775190470177</v>
+        <v>0.003853761882845586</v>
       </c>
       <c r="I5">
-        <v>0.004946235864333293</v>
+        <v>0.001532764667509845</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8599388473449991</v>
+        <v>0.6668662930356035</v>
       </c>
       <c r="L5">
-        <v>0.07179263253802759</v>
+        <v>0.3220240234889076</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1887911017837709</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08120135752530899</v>
       </c>
       <c r="O5">
-        <v>0.6365940068484832</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.101732298951248</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6224270229867699</v>
+      </c>
+      <c r="R5">
+        <v>0.9473479487197807</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.254483584820719</v>
+        <v>2.036832703544064</v>
       </c>
       <c r="C6">
-        <v>0.8908493979083687</v>
+        <v>0.9534316330478418</v>
       </c>
       <c r="D6">
-        <v>0.008645932521735844</v>
+        <v>0.02191354146556534</v>
       </c>
       <c r="E6">
-        <v>0.03398551178112363</v>
+        <v>0.04623094530076877</v>
       </c>
       <c r="F6">
-        <v>1.904826392087202</v>
+        <v>1.613966910159903</v>
       </c>
       <c r="G6">
-        <v>0.0008287865402581717</v>
+        <v>0.01910938192126155</v>
       </c>
       <c r="H6">
-        <v>0.007746180837044869</v>
+        <v>0.003952621526751354</v>
       </c>
       <c r="I6">
-        <v>0.005191875515312638</v>
+        <v>0.001705124227172838</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8556765599164891</v>
+        <v>0.6636605714421577</v>
       </c>
       <c r="L6">
-        <v>0.07135088239341769</v>
+        <v>0.3210735013073034</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1874373219577024</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08082096330937105</v>
       </c>
       <c r="O6">
-        <v>0.6320807509305695</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.101904532869646</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6180281536544285</v>
+      </c>
+      <c r="R6">
+        <v>0.9479047113747257</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.363876047089605</v>
+        <v>2.125089766641793</v>
       </c>
       <c r="C7">
-        <v>0.9349071963469271</v>
+        <v>0.9941317679497956</v>
       </c>
       <c r="D7">
-        <v>0.009055235283225826</v>
+        <v>0.02286943463249358</v>
       </c>
       <c r="E7">
-        <v>0.03538622667772273</v>
+        <v>0.04776057730779648</v>
       </c>
       <c r="F7">
-        <v>1.956477006541078</v>
+        <v>1.645910721343796</v>
       </c>
       <c r="G7">
-        <v>0.0008271197835496792</v>
+        <v>0.01769778984151116</v>
       </c>
       <c r="H7">
-        <v>0.006673643185358791</v>
+        <v>0.003347989702309651</v>
       </c>
       <c r="I7">
-        <v>0.004430072510819727</v>
+        <v>0.001509009967014308</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8721201670748258</v>
+        <v>0.6700049923493836</v>
       </c>
       <c r="L7">
-        <v>0.07419171309002692</v>
+        <v>0.3208667006082564</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1917262837144342</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08319461426988184</v>
       </c>
       <c r="O7">
-        <v>0.6619374070606412</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.093202985446045</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6451158197731033</v>
+      </c>
+      <c r="R7">
+        <v>0.9372494004075271</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.853092381028887</v>
+        <v>2.53576759051009</v>
       </c>
       <c r="C8">
-        <v>1.129788265840489</v>
+        <v>1.189629402072455</v>
       </c>
       <c r="D8">
-        <v>0.01082105675350142</v>
+        <v>0.02620229261404461</v>
       </c>
       <c r="E8">
-        <v>0.04158594392665727</v>
+        <v>0.05406350827038686</v>
       </c>
       <c r="F8">
-        <v>2.192474505032152</v>
+        <v>1.816270388411368</v>
       </c>
       <c r="G8">
-        <v>0.0008199797347016649</v>
+        <v>0.01242163303361643</v>
       </c>
       <c r="H8">
-        <v>0.002981830999316148</v>
+        <v>0.001299631749469565</v>
       </c>
       <c r="I8">
-        <v>0.001879761063904084</v>
+        <v>0.0009066478465875605</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9491600329893117</v>
+        <v>0.7115679023011268</v>
       </c>
       <c r="L8">
-        <v>0.08687482485828113</v>
+        <v>0.3254203678672667</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2165585593731265</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09381961820508167</v>
       </c>
       <c r="O8">
-        <v>0.7944786239661568</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.057658364651772</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7692916732161024</v>
+      </c>
+      <c r="R8">
+        <v>0.8972030686805219</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.827468350483457</v>
+        <v>3.376250685319405</v>
       </c>
       <c r="C9">
-        <v>1.518611499130486</v>
+        <v>1.604884783498392</v>
       </c>
       <c r="D9">
-        <v>0.01441459326294492</v>
+        <v>0.03122009950497073</v>
       </c>
       <c r="E9">
-        <v>0.05407282640296174</v>
+        <v>0.06571499879923515</v>
       </c>
       <c r="F9">
-        <v>2.676321873860019</v>
+        <v>2.202985809468913</v>
       </c>
       <c r="G9">
-        <v>0.0008067655018251549</v>
+        <v>0.004291527304157938</v>
       </c>
       <c r="H9">
-        <v>1.903524658652955E-05</v>
+        <v>2.321822866946377E-05</v>
       </c>
       <c r="I9">
-        <v>0.000949635320394826</v>
+        <v>0.001737725061913054</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.11046810830355</v>
+        <v>0.8162073003053223</v>
       </c>
       <c r="L9">
-        <v>0.1124172664386052</v>
+        <v>0.3416265248140959</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2796542359773824</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1149715954972521</v>
       </c>
       <c r="O9">
-        <v>1.05734956240164</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9945251735549405</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.021567925163865</v>
+      </c>
+      <c r="R9">
+        <v>0.830349775220574</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.522837583121202</v>
+        <v>3.919672568144961</v>
       </c>
       <c r="C10">
-        <v>1.797878187416813</v>
+        <v>1.851776800525727</v>
       </c>
       <c r="D10">
-        <v>0.01689955581931812</v>
+        <v>0.03688144745138544</v>
       </c>
       <c r="E10">
-        <v>0.06089026322192481</v>
+        <v>0.07249810794048983</v>
       </c>
       <c r="F10">
-        <v>2.994661100373264</v>
+        <v>2.384925160842883</v>
       </c>
       <c r="G10">
-        <v>0.0007977461121242424</v>
+        <v>0.009419866347384342</v>
       </c>
       <c r="H10">
-        <v>0.001035872912510172</v>
+        <v>0.001130021470396869</v>
       </c>
       <c r="I10">
-        <v>0.003572648482272456</v>
+        <v>0.004085240121652234</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.21299107282691</v>
+        <v>0.8507271119420139</v>
       </c>
       <c r="L10">
-        <v>0.1254006944152621</v>
+        <v>0.3367598700183194</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3134865713188191</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1240912482768692</v>
       </c>
       <c r="O10">
-        <v>1.233129331888179</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9398417343679455</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.176285630228122</v>
+      </c>
+      <c r="R10">
+        <v>0.7700206563756655</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.641581024109314</v>
+        <v>3.928763725223973</v>
       </c>
       <c r="C11">
-        <v>1.794781455896157</v>
+        <v>1.743718511500049</v>
       </c>
       <c r="D11">
-        <v>0.01466468606110816</v>
+        <v>0.03528308987263884</v>
       </c>
       <c r="E11">
-        <v>0.04470458001075706</v>
+        <v>0.05395868656933089</v>
       </c>
       <c r="F11">
-        <v>2.769982826331045</v>
+        <v>2.063599459434343</v>
       </c>
       <c r="G11">
-        <v>0.0007954751138649397</v>
+        <v>0.04318341420545124</v>
       </c>
       <c r="H11">
-        <v>0.01970937509101844</v>
+        <v>0.01959341970486506</v>
       </c>
       <c r="I11">
-        <v>0.005018781595739874</v>
+        <v>0.005118203480251715</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.113002600804762</v>
+        <v>0.719643406063966</v>
       </c>
       <c r="L11">
-        <v>0.08791101051302519</v>
+        <v>0.2829893882459018</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.270194715143603</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08587972177717518</v>
       </c>
       <c r="O11">
-        <v>1.147833988713657</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.844061578956925</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.06751674994095</v>
+      </c>
+      <c r="R11">
+        <v>0.7195865409987707</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.603084352237204</v>
+        <v>3.862442765823346</v>
       </c>
       <c r="C12">
-        <v>1.729328226443158</v>
+        <v>1.629257219015244</v>
       </c>
       <c r="D12">
-        <v>0.01321477228430012</v>
+        <v>0.03104835518768567</v>
       </c>
       <c r="E12">
-        <v>0.03635421929543492</v>
+        <v>0.04213038983898887</v>
       </c>
       <c r="F12">
-        <v>2.529689396474652</v>
+        <v>1.817017617349663</v>
       </c>
       <c r="G12">
-        <v>0.0007952845327880333</v>
+        <v>0.06762345379937074</v>
       </c>
       <c r="H12">
-        <v>0.05820346835051993</v>
+        <v>0.05805854747992356</v>
       </c>
       <c r="I12">
-        <v>0.005072550463587788</v>
+        <v>0.005048152531798245</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.016535454086259</v>
+        <v>0.6303170300592598</v>
       </c>
       <c r="L12">
-        <v>0.06933587982924472</v>
+        <v>0.2494442887765516</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2370955569803073</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06763916304992534</v>
       </c>
       <c r="O12">
-        <v>1.042619171786491</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7907259920423151</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9561333184709184</v>
+      </c>
+      <c r="R12">
+        <v>0.7135233149168698</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.430558105832461</v>
+        <v>3.746444982006778</v>
       </c>
       <c r="C13">
-        <v>1.615286991405981</v>
+        <v>1.522034323251717</v>
       </c>
       <c r="D13">
-        <v>0.01241491978608489</v>
+        <v>0.02477005176599434</v>
       </c>
       <c r="E13">
-        <v>0.03357864382097775</v>
+        <v>0.03566000182220785</v>
       </c>
       <c r="F13">
-        <v>2.254469024897574</v>
+        <v>1.620550110835737</v>
       </c>
       <c r="G13">
-        <v>0.000796727107774802</v>
+        <v>0.0619361501637492</v>
       </c>
       <c r="H13">
-        <v>0.1135780352030622</v>
+        <v>0.1135298881060862</v>
       </c>
       <c r="I13">
-        <v>0.004347531508176239</v>
+        <v>0.004563617445132451</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.910935329594686</v>
+        <v>0.5682163617560008</v>
       </c>
       <c r="L13">
-        <v>0.06401492489135574</v>
+        <v>0.2284137777699016</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2110942107930782</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06356612494672209</v>
       </c>
       <c r="O13">
-        <v>0.9162601925460194</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7626021203730691</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.839724197769911</v>
+      </c>
+      <c r="R13">
+        <v>0.7263057791885466</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.248132731247836</v>
+        <v>3.639573976902909</v>
       </c>
       <c r="C14">
-        <v>1.514927795315941</v>
+        <v>1.448716315905358</v>
       </c>
       <c r="D14">
-        <v>0.01229156513871477</v>
+        <v>0.02047388111787818</v>
       </c>
       <c r="E14">
-        <v>0.03504351323888066</v>
+        <v>0.03508598541495367</v>
       </c>
       <c r="F14">
-        <v>2.047387497636663</v>
+        <v>1.500214210996006</v>
       </c>
       <c r="G14">
-        <v>0.0007984734372879382</v>
+        <v>0.04548492669847803</v>
       </c>
       <c r="H14">
-        <v>0.1626565904820438</v>
+        <v>0.1626815769717638</v>
       </c>
       <c r="I14">
-        <v>0.003654151561637065</v>
+        <v>0.00415271336075751</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8329972101350052</v>
+        <v>0.5341888812882303</v>
       </c>
       <c r="L14">
-        <v>0.0683296667004285</v>
+        <v>0.2180594778999314</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1952532153304247</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06912538195654605</v>
       </c>
       <c r="O14">
-        <v>0.8196357517569695</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7555104745994723</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7559742918220351</v>
+      </c>
+      <c r="R14">
+        <v>0.7404040248678037</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.17315498901371</v>
+        <v>3.598809877219935</v>
       </c>
       <c r="C15">
-        <v>1.481124024952919</v>
+        <v>1.43078322816524</v>
       </c>
       <c r="D15">
-        <v>0.01223593528721878</v>
+        <v>0.01933850539090365</v>
       </c>
       <c r="E15">
-        <v>0.03566544369342672</v>
+        <v>0.0354835233615951</v>
       </c>
       <c r="F15">
-        <v>1.987129119842578</v>
+        <v>1.475000581193243</v>
       </c>
       <c r="G15">
-        <v>0.0007992740386881848</v>
+        <v>0.03715721384824988</v>
       </c>
       <c r="H15">
-        <v>0.1750742756562289</v>
+        <v>0.1751181496999976</v>
       </c>
       <c r="I15">
-        <v>0.003465493548453935</v>
+        <v>0.004096184166201056</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8105538682532156</v>
+        <v>0.5285919835930102</v>
       </c>
       <c r="L15">
-        <v>0.07012966309884305</v>
+        <v>0.2169684563841194</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1918118361613992</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07142743356276426</v>
       </c>
       <c r="O15">
-        <v>0.7913102423097556</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7572626427915594</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7332926757626979</v>
+      </c>
+      <c r="R15">
+        <v>0.7446723601959597</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.90870797076235</v>
+        <v>3.465854423773578</v>
       </c>
       <c r="C16">
-        <v>1.387648241444936</v>
+        <v>1.414958108432529</v>
       </c>
       <c r="D16">
-        <v>0.01127046424157108</v>
+        <v>0.01720049892710929</v>
       </c>
       <c r="E16">
-        <v>0.03339435678997038</v>
+        <v>0.03503297509964831</v>
       </c>
       <c r="F16">
-        <v>1.908791840629945</v>
+        <v>1.515336698911952</v>
       </c>
       <c r="G16">
-        <v>0.0008028296246985748</v>
+        <v>0.009473146868932858</v>
       </c>
       <c r="H16">
-        <v>0.1620794208406267</v>
+        <v>0.1620859494736209</v>
       </c>
       <c r="I16">
-        <v>0.002496352678614144</v>
+        <v>0.003469146523386257</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7876049895581403</v>
+        <v>0.5573925175306869</v>
       </c>
       <c r="L16">
-        <v>0.065963108626093</v>
+        <v>0.2321617576535928</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1966947573686184</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06908952404106827</v>
       </c>
       <c r="O16">
-        <v>0.7453609389877656</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7837103280317166</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7089260068973289</v>
+      </c>
+      <c r="R16">
+        <v>0.7512872461540425</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.802276020375928</v>
+        <v>3.407072189431801</v>
       </c>
       <c r="C17">
-        <v>1.369039416702776</v>
+        <v>1.431864471095196</v>
       </c>
       <c r="D17">
-        <v>0.01053180758478023</v>
+        <v>0.01730565784670457</v>
       </c>
       <c r="E17">
-        <v>0.03027599670657777</v>
+        <v>0.03361950669539659</v>
       </c>
       <c r="F17">
-        <v>1.956740000615625</v>
+        <v>1.600142281661618</v>
       </c>
       <c r="G17">
-        <v>0.0008046434032151405</v>
+        <v>0.00383931173748131</v>
       </c>
       <c r="H17">
-        <v>0.1242706603317316</v>
+        <v>0.1241856355620996</v>
       </c>
       <c r="I17">
-        <v>0.002175426768574518</v>
+        <v>0.003217005344226642</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8106038436459855</v>
+        <v>0.5938043722323272</v>
       </c>
       <c r="L17">
-        <v>0.05904035836151778</v>
+        <v>0.2485496429211125</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2068785184924025</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06281984369877236</v>
       </c>
       <c r="O17">
-        <v>0.7603454184511023</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8069653389555933</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7320020890443146</v>
+      </c>
+      <c r="R17">
+        <v>0.7557988732134291</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.82412968816476</v>
+        <v>3.429917845089506</v>
       </c>
       <c r="C18">
-        <v>1.411101501411508</v>
+        <v>1.494371075877666</v>
       </c>
       <c r="D18">
-        <v>0.01042859670268403</v>
+        <v>0.01909262431356851</v>
       </c>
       <c r="E18">
-        <v>0.02937558711829058</v>
+        <v>0.03455233013653136</v>
       </c>
       <c r="F18">
-        <v>2.127543535834107</v>
+        <v>1.761575901348124</v>
       </c>
       <c r="G18">
-        <v>0.0008050672282375881</v>
+        <v>0.002508345941883316</v>
       </c>
       <c r="H18">
-        <v>0.07143161786463281</v>
+        <v>0.07133762891245254</v>
       </c>
       <c r="I18">
-        <v>0.00189850959919724</v>
+        <v>0.002914247326267549</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8805294288422587</v>
+        <v>0.6532793451496133</v>
       </c>
       <c r="L18">
-        <v>0.05653333928140292</v>
+        <v>0.2722310286276581</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2275674862683843</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0601496112600588</v>
       </c>
       <c r="O18">
-        <v>0.8319016794757061</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8369829022165458</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8051901215289305</v>
+      </c>
+      <c r="R18">
+        <v>0.7611505709409983</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.934641599882582</v>
+        <v>3.513308766105524</v>
       </c>
       <c r="C19">
-        <v>1.503158200975349</v>
+        <v>1.60012252277312</v>
       </c>
       <c r="D19">
-        <v>0.01170496346357375</v>
+        <v>0.02318520698226578</v>
       </c>
       <c r="E19">
-        <v>0.03524641134022843</v>
+        <v>0.04250864014618028</v>
       </c>
       <c r="F19">
-        <v>2.382903135877029</v>
+        <v>1.979068626417586</v>
       </c>
       <c r="G19">
-        <v>0.0008043047143126945</v>
+        <v>0.001976825355325396</v>
       </c>
       <c r="H19">
-        <v>0.02617310241002002</v>
+        <v>0.02617861938641397</v>
       </c>
       <c r="I19">
-        <v>0.002167758008820186</v>
+        <v>0.003227168951975834</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9801089891056876</v>
+        <v>0.727658729721071</v>
       </c>
       <c r="L19">
-        <v>0.06901198076859671</v>
+        <v>0.30020734503276</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2555240462706294</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07181760935438142</v>
       </c>
       <c r="O19">
-        <v>0.9471903164435105</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8776380225355744</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9182486580829305</v>
+      </c>
+      <c r="R19">
+        <v>0.7721681855112639</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.31674122633234</v>
+        <v>3.789190572887662</v>
       </c>
       <c r="C20">
-        <v>1.728803069237415</v>
+        <v>1.820514375838286</v>
       </c>
       <c r="D20">
-        <v>0.01658064247272861</v>
+        <v>0.03432660837950152</v>
       </c>
       <c r="E20">
-        <v>0.05915255529535557</v>
+        <v>0.07007800692602473</v>
       </c>
       <c r="F20">
-        <v>2.88835255761316</v>
+        <v>2.35945540213676</v>
       </c>
       <c r="G20">
-        <v>0.0008001821234604467</v>
+        <v>0.003038394771547104</v>
       </c>
       <c r="H20">
-        <v>0.0005204059948682449</v>
+        <v>0.000710065491299261</v>
       </c>
       <c r="I20">
-        <v>0.003341548156989838</v>
+        <v>0.004279818876051777</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.172147085315373</v>
+        <v>0.8486094060443108</v>
       </c>
       <c r="L20">
-        <v>0.1214321785431594</v>
+        <v>0.3405472907639862</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3071627871898812</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.12145406506081</v>
       </c>
       <c r="O20">
-        <v>1.184487912636868</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.946960786291136</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.141209571694375</v>
+      </c>
+      <c r="R20">
+        <v>0.7874281887098178</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.890051731522078</v>
+        <v>4.064652574433126</v>
       </c>
       <c r="C21">
-        <v>1.969189934316546</v>
+        <v>1.882868699274525</v>
       </c>
       <c r="D21">
-        <v>0.01932959943725265</v>
+        <v>0.05038623554413135</v>
       </c>
       <c r="E21">
-        <v>0.06889655350657975</v>
+        <v>0.08461728898861409</v>
       </c>
       <c r="F21">
-        <v>3.205684057225596</v>
+        <v>2.34282707952751</v>
       </c>
       <c r="G21">
-        <v>0.0007930556332623602</v>
+        <v>0.06414195627208841</v>
       </c>
       <c r="H21">
-        <v>0.002306387545539135</v>
+        <v>0.001857672343493766</v>
       </c>
       <c r="I21">
-        <v>0.006513417597425075</v>
+        <v>0.006104445745580556</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.280237332042418</v>
+        <v>0.8047965811914182</v>
       </c>
       <c r="L21">
-        <v>0.14149902441752</v>
+        <v>0.3121604271724223</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.305601697897032</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1369290869435957</v>
       </c>
       <c r="O21">
-        <v>1.350407013160577</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9213007176652397</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.247857921052557</v>
+      </c>
+      <c r="R21">
+        <v>0.7272984548964665</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.265112486679698</v>
+        <v>4.229034259151433</v>
       </c>
       <c r="C22">
-        <v>2.1184129272566</v>
+        <v>1.902733409705775</v>
       </c>
       <c r="D22">
-        <v>0.02077633230806697</v>
+        <v>0.06250799909052773</v>
       </c>
       <c r="E22">
-        <v>0.07386473893194001</v>
+        <v>0.09321060195135189</v>
       </c>
       <c r="F22">
-        <v>3.402639490162926</v>
+        <v>2.307553230134815</v>
       </c>
       <c r="G22">
-        <v>0.0007885386483718452</v>
+        <v>0.1533577409119573</v>
       </c>
       <c r="H22">
-        <v>0.004264642301244015</v>
+        <v>0.002965779680041303</v>
       </c>
       <c r="I22">
-        <v>0.009084455115107914</v>
+        <v>0.007177480551896487</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.3487845169427</v>
+        <v>0.7695370545809368</v>
       </c>
       <c r="L22">
-        <v>0.1516970274548513</v>
+        <v>0.2921965121379273</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.301465129986866</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1440963130328328</v>
       </c>
       <c r="O22">
-        <v>1.450435172157924</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9031831224508977</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.30506054623315</v>
+      </c>
+      <c r="R22">
+        <v>0.6937951236055639</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.073270937009283</v>
+        <v>4.172090408074382</v>
       </c>
       <c r="C23">
-        <v>2.036449783143951</v>
+        <v>1.91093995440616</v>
       </c>
       <c r="D23">
-        <v>0.01984642014432225</v>
+        <v>0.0539647409596995</v>
       </c>
       <c r="E23">
-        <v>0.07111809705440919</v>
+        <v>0.0878178667779892</v>
       </c>
       <c r="F23">
-        <v>3.305041361788454</v>
+        <v>2.361236961496857</v>
       </c>
       <c r="G23">
-        <v>0.0007909108943893938</v>
+        <v>0.08741268866593543</v>
       </c>
       <c r="H23">
-        <v>0.003159701072710908</v>
+        <v>0.002387134873522267</v>
       </c>
       <c r="I23">
-        <v>0.00738284914743037</v>
+        <v>0.006319366971629492</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.317087418306244</v>
+        <v>0.8037832490690704</v>
       </c>
       <c r="L23">
-        <v>0.1463305931557457</v>
+        <v>0.308105404765989</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3100075809890797</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1404606579372611</v>
       </c>
       <c r="O23">
-        <v>1.397575943162408</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9153350843906978</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.280835271619665</v>
+      </c>
+      <c r="R23">
+        <v>0.7134242874128294</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.337152348697828</v>
+        <v>3.806822765199115</v>
       </c>
       <c r="C24">
-        <v>1.733932199705066</v>
+        <v>1.828278315510602</v>
       </c>
       <c r="D24">
-        <v>0.0167251669951618</v>
+        <v>0.03462486122819897</v>
       </c>
       <c r="E24">
-        <v>0.06111266707496732</v>
+        <v>0.07226818025649173</v>
       </c>
       <c r="F24">
-        <v>2.928393131155417</v>
+        <v>2.395043154823369</v>
       </c>
       <c r="G24">
-        <v>0.0008000852038491043</v>
+        <v>0.002833804853959343</v>
       </c>
       <c r="H24">
-        <v>0.0004467942553012527</v>
+        <v>0.0006428003557985562</v>
       </c>
       <c r="I24">
-        <v>0.002918235641406142</v>
+        <v>0.003759142368984669</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.191011495221957</v>
+        <v>0.8636768304890268</v>
       </c>
       <c r="L24">
-        <v>0.1262595289453898</v>
+        <v>0.3462328969190906</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3127997200743948</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1261653915643706</v>
       </c>
       <c r="O24">
-        <v>1.197898417071983</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9584461311202332</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.154581118984922</v>
+      </c>
+      <c r="R24">
+        <v>0.7930830373176221</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.55057434738552</v>
+        <v>3.150811179599543</v>
       </c>
       <c r="C25">
-        <v>1.415333147342665</v>
+        <v>1.506251520955914</v>
       </c>
       <c r="D25">
-        <v>0.01362059468168475</v>
+        <v>0.02956070616165363</v>
       </c>
       <c r="E25">
-        <v>0.05075611673880154</v>
+        <v>0.06238912134352503</v>
       </c>
       <c r="F25">
-        <v>2.532373623822011</v>
+        <v>2.104443034802401</v>
       </c>
       <c r="G25">
-        <v>0.0008103075064372661</v>
+        <v>0.004824531938875332</v>
       </c>
       <c r="H25">
-        <v>0.0003176353365157425</v>
+        <v>3.397420559947406E-05</v>
       </c>
       <c r="I25">
-        <v>0.001077821693002079</v>
+        <v>0.001708222032586804</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.05887813004172</v>
+        <v>0.7890827222873043</v>
       </c>
       <c r="L25">
-        <v>0.1052856933216049</v>
+        <v>0.3379748128892075</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2622848728556022</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1092128700555115</v>
       </c>
       <c r="O25">
-        <v>0.9850389259470305</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.007265648678406</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.9554431678713797</v>
+      </c>
+      <c r="R25">
+        <v>0.8485984427075071</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
